--- a/tests/resources/test_master_1_2020.xlsx
+++ b/tests/resources/test_master_1_2020.xlsx
@@ -28202,7 +28202,7 @@
     <row r="1542" ht="13.8" customHeight="1" s="8">
       <c r="A1542" s="7" t="inlineStr">
         <is>
-          <t>Pre 19-20 RDEL Forecast one off new costs</t>
+          <t xml:space="preserve">Pre-profile RDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B1542" s="7" t="n">
@@ -34693,7 +34693,7 @@
     <row r="1837" ht="13.8" customHeight="1" s="8">
       <c r="A1837" s="7" t="inlineStr">
         <is>
-          <t>Pre 19-20 CDEL Forecast Total</t>
+          <t xml:space="preserve">Pre-profile CDEL Forecast one off new costs </t>
         </is>
       </c>
       <c r="B1837" s="7" t="n">
@@ -34759,7 +34759,7 @@
     <row r="1840" ht="13.8" customHeight="1" s="8">
       <c r="A1840" s="7" t="inlineStr">
         <is>
-          <t>Pre 19-20 Forecast Non-Gov</t>
+          <t>Pre-profile Forecast Non-Gov</t>
         </is>
       </c>
       <c r="B1840" s="7" t="n">
@@ -34957,7 +34957,7 @@
     <row r="1849" ht="13.8" customHeight="1" s="8">
       <c r="A1849" s="7" t="inlineStr">
         <is>
-          <t>19-20 CDEL Forecast Total</t>
+          <t>19-20 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1849" s="7" t="n">
@@ -35338,7 +35338,7 @@
     <row r="1867" ht="13.8" customHeight="1" s="8">
       <c r="A1867" s="7" t="inlineStr">
         <is>
-          <t>20-21 CDEL Forecast Total</t>
+          <t>20-21 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1867" s="7" t="n">
@@ -35602,7 +35602,7 @@
     <row r="1879" ht="13.8" customHeight="1" s="8">
       <c r="A1879" s="7" t="inlineStr">
         <is>
-          <t>21-22 CDEL Forecast Total</t>
+          <t>21-22 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1879" s="7" t="n">
@@ -35866,7 +35866,7 @@
     <row r="1891" ht="13.8" customHeight="1" s="8">
       <c r="A1891" s="7" t="inlineStr">
         <is>
-          <t>22-23 CDEL Forecast Total</t>
+          <t>22-23 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1891" s="7" t="n">
@@ -36130,7 +36130,7 @@
     <row r="1903" ht="13.8" customHeight="1" s="8">
       <c r="A1903" s="7" t="inlineStr">
         <is>
-          <t>23-24 CDEL Forecast Total</t>
+          <t>23-24 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1903" s="7" t="n">
@@ -36391,7 +36391,7 @@
     <row r="1915" ht="13.8" customHeight="1" s="8">
       <c r="A1915" s="7" t="inlineStr">
         <is>
-          <t>24-25 CDEL Forecast Total</t>
+          <t>24-25 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1915" s="7" t="n">
@@ -36655,7 +36655,7 @@
     <row r="1927" ht="13.8" customHeight="1" s="8">
       <c r="A1927" s="7" t="inlineStr">
         <is>
-          <t>25-26 CDEL Forecast Total</t>
+          <t>25-26 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1927" s="7" t="n">
@@ -36919,7 +36919,7 @@
     <row r="1939" ht="13.8" customHeight="1" s="8">
       <c r="A1939" s="7" t="inlineStr">
         <is>
-          <t>26-27 CDEL Forecast Total</t>
+          <t>26-27 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1939" s="7" t="n">
@@ -37183,7 +37183,7 @@
     <row r="1951" ht="13.8" customHeight="1" s="8">
       <c r="A1951" s="7" t="inlineStr">
         <is>
-          <t>27-28 CDEL Forecast Total</t>
+          <t>27-28 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1951" s="7" t="n">
@@ -37447,7 +37447,7 @@
     <row r="1963" ht="13.8" customHeight="1" s="8">
       <c r="A1963" s="7" t="inlineStr">
         <is>
-          <t>28-29 CDEL Forecast Total</t>
+          <t>28-29 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1963" s="7" t="n">
@@ -37711,7 +37711,7 @@
     <row r="1975" ht="13.8" customHeight="1" s="8">
       <c r="A1975" s="7" t="inlineStr">
         <is>
-          <t>29-30 CDEL Forecast Total</t>
+          <t>29-30 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1975" s="7" t="n">
@@ -37975,7 +37975,7 @@
     <row r="1987" ht="13.8" customHeight="1" s="8">
       <c r="A1987" s="7" t="inlineStr">
         <is>
-          <t>30-31 CDEL Forecast Total</t>
+          <t>30-31 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1987" s="7" t="n">
@@ -38239,7 +38239,7 @@
     <row r="1999" ht="13.8" customHeight="1" s="8">
       <c r="A1999" s="7" t="inlineStr">
         <is>
-          <t>31-32 CDEL Forecast Total</t>
+          <t>31-32 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B1999" s="7" t="n">
@@ -38503,7 +38503,7 @@
     <row r="2011" ht="13.8" customHeight="1" s="8">
       <c r="A2011" s="7" t="inlineStr">
         <is>
-          <t>32-33 CDEL Forecast Total</t>
+          <t>32-33 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2011" s="7" t="n">
@@ -38767,7 +38767,7 @@
     <row r="2023" ht="13.8" customHeight="1" s="8">
       <c r="A2023" s="7" t="inlineStr">
         <is>
-          <t>33-34 CDEL Forecast Total</t>
+          <t>33-34 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2023" s="7" t="n">
@@ -39031,7 +39031,7 @@
     <row r="2035" ht="13.8" customHeight="1" s="8">
       <c r="A2035" s="7" t="inlineStr">
         <is>
-          <t>34-35 CDEL Forecast Total</t>
+          <t>34-35 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2035" s="7" t="n">
@@ -39295,7 +39295,7 @@
     <row r="2047" ht="13.8" customHeight="1" s="8">
       <c r="A2047" s="7" t="inlineStr">
         <is>
-          <t>35-36 CDEL Forecast Total</t>
+          <t>35-36 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2047" s="7" t="n">
@@ -39559,7 +39559,7 @@
     <row r="2059" ht="13.8" customHeight="1" s="8">
       <c r="A2059" s="7" t="inlineStr">
         <is>
-          <t>36-37 CDEL Forecast Total</t>
+          <t>36-37 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2059" s="7" t="n">
@@ -39823,7 +39823,7 @@
     <row r="2071" ht="13.8" customHeight="1" s="8">
       <c r="A2071" s="7" t="inlineStr">
         <is>
-          <t>37-38 CDEL Forecast Total</t>
+          <t>37-38 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2071" s="7" t="n">
@@ -40087,7 +40087,7 @@
     <row r="2083" ht="13.8" customHeight="1" s="8">
       <c r="A2083" s="7" t="inlineStr">
         <is>
-          <t>38-39 CDEL Forecast Total</t>
+          <t>38-39 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2083" s="7" t="n">
@@ -40351,7 +40351,7 @@
     <row r="2095" ht="13.8" customHeight="1" s="8">
       <c r="A2095" s="7" t="inlineStr">
         <is>
-          <t>39-40 CDEL Forecast Total</t>
+          <t>39-40 CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2095" s="7" t="n">
@@ -40615,7 +40615,7 @@
     <row r="2107" ht="13.8" customHeight="1" s="8">
       <c r="A2107" s="7" t="inlineStr">
         <is>
-          <t>Unprofiled CDEL Forecast Total</t>
+          <t>Unprofiled CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2107" s="7" t="n">
@@ -40879,7 +40879,7 @@
     <row r="2119" ht="13.8" customHeight="1" s="8">
       <c r="A2119" s="7" t="inlineStr">
         <is>
-          <t>Total CDEL Forecast Total</t>
+          <t>Total CDEL Forecast one off new costs</t>
         </is>
       </c>
       <c r="B2119" s="7" t="n">
